--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interfaceTest\testFile\case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>case_name</t>
   </si>
@@ -45,51 +36,212 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>userId=&amp;token=A611D9EDA74C8F8D290818C229BCAFC2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId=4028824f691abd3901691b1da8540000&amp;token=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId=&amp;token=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId=4028824f691abd3901691b1da8540000&amp;token=A611D9EDA74C8F8D290818C229BCAFC2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>query</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_getBigLevelPrizeList_normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_getBigLevelPrizeList_noUserId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_getBigLevelPrizeList_noAll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_getBigLevelPrizeList_noToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn=ActivityMarchSchoolSeason2019&amp;mn=getBigLevelPrizeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn=ActivityMarchSchoolSeason2019&amp;mn=getBigLevelPrizeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn=ActivityMarchSchoolSeason2019&amp;mn=getBigLevelPrizeList</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;size=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;size=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=&amp;size=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=&amp;page=0&amp;size=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;size=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=ShoppingCart&amp;mn=get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=ShoppingCart&amp;mn=get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=ShoppingCart&amp;mn=get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=&amp;page=&amp;size=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noUserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetShoppingCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;info=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;info=%7B%22orderList%22%3A%5B%7B%22goodsId%22%3A%222107%22%2C%22productId%22%3A%222287%22%2C%22num%22%3A%221%22%2C%22recommendUser%22%3A%22%22%7D%5D%7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=4028824f69fd52fc016a0016c0790001&amp;info=%7B%22orderList%22%3A%5B%7B%22goodsId%22%3A%222107%22%2C%22productId%22%3A%222287%22%2C%22num%22%3A%221%22%2C%22recommendUser%22%3A%22%22%7D%5D%7D</t>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=&amp;info=%7B%22orderList%22%3A%5B%7B%22goodsId%22%3A%222107%22%2C%22productId%22%3A%222287%22%2C%22num%22%3A%221%22%2C%22recommendUser%22%3A%22%22%7D%5D%7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=&amp;info=</t>
+  </si>
+  <si>
+    <t>sn=Coupons&amp;mn=getAvailableCoupons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAvailableCoupons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getAvailableCoupons_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getAvailableCoupons_noInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getAvailableCoupons_noToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getAvailableCoupons_noUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getShoppingCart_noAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;size=200&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;orderStatus=996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;size=200&amp;userId=&amp;page=0&amp;orderStatus=996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;size=&amp;userId=&amp;page=&amp;orderStatus=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=Order&amp;mn=getV3OrdersByUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=Order&amp;mn=getV3OrdersByUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;size=200&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=&amp;orderStatus=996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;size=&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;orderStatus=996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetV3OrdersByUser</t>
+  </si>
+  <si>
+    <t>GetV3OrdersByUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;size=200&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;orderStatus=996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;size=200&amp;userId=4028824f69fd52fc016a0016c0790001&amp;page=0&amp;orderStatus=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrdersByUser_noStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,9 +310,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -208,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,119 +577,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="80.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
+    <row r="6" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M20:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>case_name</t>
   </si>
@@ -242,6 +242,67 @@
   </si>
   <si>
     <t>test_getV3OrdersByUser_noStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;payOrderNo=1598f875ffa64535bac857c96ac2f413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=4028824f69fd52fc016a0016c0790001&amp;payOrderNo=1598f875ffa64535bac857c96ac2f413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=&amp;payOrderNo=1598f875ffa64535bac857c96ac2f413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=&amp;userId=&amp;payOrderNo=</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn=Order&amp;mn=getV3OrderInfo</t>
+  </si>
+  <si>
+    <t>sn=Order&amp;mn=getV3OrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetV3OrderInfo</t>
+  </si>
+  <si>
+    <t>GetV3OrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=B8759FF0D7F737ABF8F2FE4A51FE1CCD&amp;userId=4028824f69fd52fc016a0016c0790001&amp;payOrderNo=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrderInfo_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrderInfo_noPayOrderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrderInfo_noToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrderInfo_noUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_getV3OrderInfo_noAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,6 +973,91 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
